--- a/files/templates/DailyPerformance_Report.xlsx
+++ b/files/templates/DailyPerformance_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\idp\erp\printerp\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97C17C1-5411-4E06-9F2C-35844C723FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C8A7C5-63FC-4D63-BF82-DF263303C5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C3464913-9578-4454-890E-517ED49BF19A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
   <si>
     <t>Biller</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Day 31</t>
+  </si>
+  <si>
+    <t>Average Revenue</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_-[$Rp-3809]* #,##0_-;\-[$Rp-3809]* #,##0_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$Rp-3809]* #,##0_-;\-[$Rp-3809]* #,##0_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -215,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -238,20 +241,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -259,6 +282,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1A7580-16C1-4E7A-8A00-9DD2C19EFFCD}">
-  <dimension ref="A1:CS20"/>
+  <dimension ref="A1:CT20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -583,464 +618,468 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="97" width="17.140625" customWidth="1"/>
+    <col min="1" max="98" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="3" t="s">
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="4" t="s">
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="3" t="s">
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="4" t="s">
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="3" t="s">
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="4" t="s">
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="3" t="s">
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="4" t="s">
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="3" t="s">
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="4" t="s">
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="3" t="s">
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="4" t="s">
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="3" t="s">
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="4" t="s">
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="3" t="s">
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="4" t="s">
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="3" t="s">
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="4" t="s">
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="6"/>
+      <c r="BQ1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="3" t="s">
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="BT1" s="3"/>
-      <c r="BU1" s="3"/>
-      <c r="BV1" s="4" t="s">
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="6"/>
+      <c r="BW1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="BW1" s="4"/>
-      <c r="BX1" s="4"/>
-      <c r="BY1" s="3" t="s">
+      <c r="BX1" s="7"/>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="BZ1" s="3"/>
-      <c r="CA1" s="3"/>
-      <c r="CB1" s="4" t="s">
+      <c r="CA1" s="6"/>
+      <c r="CB1" s="6"/>
+      <c r="CC1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="CC1" s="4"/>
-      <c r="CD1" s="4"/>
-      <c r="CE1" s="3" t="s">
+      <c r="CD1" s="7"/>
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="CF1" s="3"/>
-      <c r="CG1" s="3"/>
-      <c r="CH1" s="4" t="s">
+      <c r="CG1" s="6"/>
+      <c r="CH1" s="6"/>
+      <c r="CI1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="CI1" s="4"/>
-      <c r="CJ1" s="4"/>
-      <c r="CK1" s="3" t="s">
+      <c r="CJ1" s="7"/>
+      <c r="CK1" s="7"/>
+      <c r="CL1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="CL1" s="3"/>
-      <c r="CM1" s="3"/>
-      <c r="CN1" s="4" t="s">
+      <c r="CM1" s="6"/>
+      <c r="CN1" s="6"/>
+      <c r="CO1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="CO1" s="4"/>
-      <c r="CP1" s="4"/>
-      <c r="CQ1" s="3" t="s">
+      <c r="CP1" s="7"/>
+      <c r="CQ1" s="7"/>
+      <c r="CR1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="CR1" s="3"/>
-      <c r="CS1" s="3"/>
+      <c r="CS1" s="6"/>
+      <c r="CT1" s="6"/>
     </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
+    <row r="2" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="AU2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="AX2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="BA2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BC2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="BD2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BF2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="BG2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BI2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="BJ2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BL2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="BM2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BO2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="BP2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BR2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="BS2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BU2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="BV2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BW2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BX2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="BY2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BZ2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="CA2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="CB2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="CC2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="CD2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="CC2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="CE2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="CF2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="CG2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="CH2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="CJ2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="CK2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="CL2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="CM2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="CL2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="CN2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="CO2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="CP2" s="7" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CP2" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="CQ2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="CR2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="CS2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="CR2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="CS2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="CT2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1138,8 +1177,9 @@
       <c r="CQ3" s="2"/>
       <c r="CR3" s="2"/>
       <c r="CS3" s="2"/>
+      <c r="CT3" s="2"/>
     </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1237,8 +1277,9 @@
       <c r="CQ4" s="2"/>
       <c r="CR4" s="2"/>
       <c r="CS4" s="2"/>
+      <c r="CT4" s="2"/>
     </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1336,8 +1377,9 @@
       <c r="CQ5" s="2"/>
       <c r="CR5" s="2"/>
       <c r="CS5" s="2"/>
+      <c r="CT5" s="2"/>
     </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1435,8 +1477,9 @@
       <c r="CQ6" s="2"/>
       <c r="CR6" s="2"/>
       <c r="CS6" s="2"/>
+      <c r="CT6" s="2"/>
     </row>
-    <row r="7" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1534,8 +1577,9 @@
       <c r="CQ7" s="2"/>
       <c r="CR7" s="2"/>
       <c r="CS7" s="2"/>
+      <c r="CT7" s="2"/>
     </row>
-    <row r="8" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1633,8 +1677,9 @@
       <c r="CQ8" s="2"/>
       <c r="CR8" s="2"/>
       <c r="CS8" s="2"/>
+      <c r="CT8" s="2"/>
     </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1732,8 +1777,9 @@
       <c r="CQ9" s="2"/>
       <c r="CR9" s="2"/>
       <c r="CS9" s="2"/>
+      <c r="CT9" s="2"/>
     </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1831,8 +1877,9 @@
       <c r="CQ10" s="2"/>
       <c r="CR10" s="2"/>
       <c r="CS10" s="2"/>
+      <c r="CT10" s="2"/>
     </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1930,8 +1977,9 @@
       <c r="CQ11" s="2"/>
       <c r="CR11" s="2"/>
       <c r="CS11" s="2"/>
+      <c r="CT11" s="2"/>
     </row>
-    <row r="12" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2029,8 +2077,9 @@
       <c r="CQ12" s="2"/>
       <c r="CR12" s="2"/>
       <c r="CS12" s="2"/>
+      <c r="CT12" s="2"/>
     </row>
-    <row r="13" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2128,8 +2177,9 @@
       <c r="CQ13" s="2"/>
       <c r="CR13" s="2"/>
       <c r="CS13" s="2"/>
+      <c r="CT13" s="2"/>
     </row>
-    <row r="14" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2227,8 +2277,9 @@
       <c r="CQ14" s="2"/>
       <c r="CR14" s="2"/>
       <c r="CS14" s="2"/>
+      <c r="CT14" s="2"/>
     </row>
-    <row r="15" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2326,8 +2377,9 @@
       <c r="CQ15" s="2"/>
       <c r="CR15" s="2"/>
       <c r="CS15" s="2"/>
+      <c r="CT15" s="2"/>
     </row>
-    <row r="16" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2425,8 +2477,9 @@
       <c r="CQ16" s="2"/>
       <c r="CR16" s="2"/>
       <c r="CS16" s="2"/>
+      <c r="CT16" s="2"/>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2524,8 +2577,9 @@
       <c r="CQ17" s="2"/>
       <c r="CR17" s="2"/>
       <c r="CS17" s="2"/>
+      <c r="CT17" s="2"/>
     </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2623,8 +2677,9 @@
       <c r="CQ18" s="2"/>
       <c r="CR18" s="2"/>
       <c r="CS18" s="2"/>
+      <c r="CT18" s="2"/>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2722,8 +2777,9 @@
       <c r="CQ19" s="2"/>
       <c r="CR19" s="2"/>
       <c r="CS19" s="2"/>
+      <c r="CT19" s="2"/>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2821,43 +2877,45 @@
       <c r="CQ20" s="2"/>
       <c r="CR20" s="2"/>
       <c r="CS20" s="2"/>
+      <c r="CT20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="CE1:CG1"/>
-    <mergeCell ref="CH1:CJ1"/>
-    <mergeCell ref="CK1:CM1"/>
-    <mergeCell ref="CN1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="CB1:CD1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AL1:AN1"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
+  <mergeCells count="36">
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="CO1:CQ1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
